--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>005167</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>25.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>85.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009387</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009388</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009649</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009650</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实逆向策略股票</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.85</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070021</t>
+          <t>005660</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实主题新动力混合</t>
+          <t>嘉实资源精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001756</t>
+          <t>001760</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实策略优选灵活配置混合</t>
+          <t>嘉实创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20.18</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001760</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实创新成长灵活配置混合</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>582003</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴配置优化灵活配置混合</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>009649</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>嘉实精选平衡混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>001756</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>嘉实策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>005661</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>嘉实资源精选股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>582003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>东吴配置优化灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1388,15 +1708,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>91.84</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>5.46</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>009650</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>嘉实精选平衡混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>44.48</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,818 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3768</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2928,4 +2929,780 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3705,4 +3706,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3714,7 +3715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3725,17 +3726,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3745,14 +3766,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.16</v>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3761,14 +3804,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.85</v>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3777,14 +3842,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.25</v>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3793,13 +3880,453 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4225,7 +4226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,17 +4237,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4256,14 +4277,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.21</v>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4272,14 +4315,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -4288,14 +4421,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5">
@@ -4304,14 +4437,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>5.25</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="6">
@@ -4320,13 +4453,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4358,7 +4359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4369,17 +4370,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4389,14 +4410,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4405,14 +4448,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -4421,14 +4554,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
@@ -4437,14 +4570,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6">
@@ -4453,14 +4586,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>5.25</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="7">
@@ -4469,13 +4602,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>5.25</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>华商乐享互联灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8235</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013596</t>
+          <t>013142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）C</t>
+          <t>华商乐享互联灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -788,36 +805,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.8235</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -826,36 +843,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>013596</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>招商中证煤炭等权指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -864,6 +881,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1373,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2149,7 +2298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2963,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4235,7 +4384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603113-金能科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,428 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1088,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合A</t>
+          <t>招商中证煤炭等权指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>17.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.5327</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1126,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013142</t>
+          <t>013596</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合C</t>
+          <t>招商中证煤炭等权指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0482</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -805,36 +1258,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>华商乐享互联灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.31</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8235</t>
+          <t>0.1728</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -843,36 +1296,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013596</t>
+          <t>013142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）C</t>
+          <t>华商乐享互联灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -937,36 +1390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>26.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0986</t>
+          <t>0.8235</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -975,36 +1428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>013596</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>招商中证煤炭等权指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1013,6 +1466,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1522,7 +2107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2298,7 +2883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3112,7 +3697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4382,402 +4967,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2668</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009649</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1257</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009387</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009650</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009388</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>